--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/システム構成図第２版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/システム構成図第２版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/06_システム構成図/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFDFF2-BB82-864A-AFC5-B9E77321D0FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D949DBA-5D07-BE43-AE86-C0F26B8BEF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{6F755374-3484-0A4A-8DA6-FA8E50FADCCE}"/>
   </bookViews>
@@ -347,9 +347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -365,7 +365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="457200" y="533400"/>
-          <a:ext cx="4508500" cy="2603500"/>
+          <a:ext cx="4597400" cy="5511800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,9 +408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -426,7 +426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9271000" y="3886200"/>
-          <a:ext cx="6235700" cy="3200400"/>
+          <a:ext cx="6426200" cy="3556000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -704,15 +704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>809233</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>917950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>164897</xdr:rowOff>
+      <xdr:colOff>173316</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30727</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -727,8 +727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2716362">
-          <a:off x="5920139" y="1458686"/>
-          <a:ext cx="504105" cy="3004317"/>
+          <a:off x="5677222" y="1327320"/>
+          <a:ext cx="431999" cy="3718211"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
           <a:avLst/>
@@ -871,25 +871,278 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>846843</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="グラフィックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3B87AB-EFD0-F246-BF31-E597D9EBD23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6807200" y="787400"/>
+          <a:ext cx="2726443" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D980910-7713-A345-AD0F-7D29E3676BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9220200"/>
+          <a:ext cx="2489200" cy="2489200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776C0B4D-8B9A-C94B-9409-2D686A357C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="9398000"/>
+          <a:ext cx="1993900" cy="1993900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AB9750-3F99-C94D-8ABD-A4145FF06515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="2740240"/>
+          <a:ext cx="1003300" cy="993559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCADFA28-957B-BB40-9030-41D3414E2D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="4902200"/>
+          <a:ext cx="1003300" cy="993559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBBD51D-D6C8-EF46-8F7E-E1FDF2BAE6E1}"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743EEF6D-7063-5C43-97D6-374B7945322D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,8 +1150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="4013200"/>
-          <a:ext cx="3937000" cy="2032000"/>
+          <a:off x="558800" y="8509000"/>
+          <a:ext cx="5765800" cy="4470400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,25 +1185,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622905</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8831DA64-EEF3-5C45-8365-29F2B0CF04A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156200" y="9652000"/>
+          <a:ext cx="3188305" cy="1673860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="上下矢印 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B61CA8-7B39-144C-B5AF-0BC7C0488983}"/>
+        <xdr:cNvPr id="39" name="下矢印 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F6CCD0-6F9F-DC4D-9B9F-529E63D9AA51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,10 +1261,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="3302000"/>
-          <a:ext cx="431800" cy="660400"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
+          <a:off x="1498600" y="5842000"/>
+          <a:ext cx="711200" cy="3860800"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -992,292 +1295,38 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>846843</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="グラフィックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3B87AB-EFD0-F246-BF31-E597D9EBD23D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6807200" y="787400"/>
-          <a:ext cx="2726443" cy="1473200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>36</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D980910-7713-A345-AD0F-7D29E3676BAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="9220200"/>
-          <a:ext cx="2489200" cy="2489200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776C0B4D-8B9A-C94B-9409-2D686A357C40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200400" y="9398000"/>
-          <a:ext cx="1993900" cy="1993900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>200240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AB9750-3F99-C94D-8ABD-A4145FF06515}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5321300" y="2740240"/>
-          <a:ext cx="1003300" cy="993559"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>53759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCADFA28-957B-BB40-9030-41D3414E2D75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="4902200"/>
-          <a:ext cx="1003300" cy="993559"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743EEF6D-7063-5C43-97D6-374B7945322D}"/>
+        <xdr:cNvPr id="40" name="下矢印 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B757C31-4176-8B4D-BD5C-3F24088BB393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="558800" y="8509000"/>
-          <a:ext cx="5765800" cy="3860800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:xfrm rot="10800000">
+          <a:off x="3886200" y="5664200"/>
+          <a:ext cx="635000" cy="3835400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1308,23 +1357,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>826105</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8831DA64-EEF3-5C45-8365-29F2B0CF04A9}"/>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C28DED8-1918-144D-8DF9-DFAC18396180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1382,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1346,8 +1395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5359400" y="9626600"/>
-          <a:ext cx="3188305" cy="1673860"/>
+          <a:off x="1371600" y="7162800"/>
+          <a:ext cx="1003300" cy="993559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1356,34 +1405,134 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B91DA12-49A3-F84C-BDA4-DB6B3276DC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="7137400"/>
+          <a:ext cx="1003300" cy="993559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>237244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C359DFDB-D41A-2343-A496-2D9E08A229FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="11353800"/>
+          <a:ext cx="1600200" cy="1583444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="下矢印 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F6CCD0-6F9F-DC4D-9B9F-529E63D9AA51}"/>
+        <xdr:cNvPr id="32" name="下矢印 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10CD3BE-773C-9441-94DE-6D3A2E4591C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1498600" y="5842000"/>
-          <a:ext cx="711200" cy="3860800"/>
+        <a:xfrm rot="16200000">
+          <a:off x="2578100" y="10020300"/>
+          <a:ext cx="711200" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1416,85 +1565,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="下矢印 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B757C31-4176-8B4D-BD5C-3F24088BB393}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3886200" y="5664200"/>
-          <a:ext cx="635000" cy="3835400"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28359</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C28DED8-1918-144D-8DF9-DFAC18396180}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2F8975-F982-7143-BF28-6C676471B47E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1592,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1516,58 +1605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7162800"/>
-          <a:ext cx="1003300" cy="993559"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2959</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B91DA12-49A3-F84C-BDA4-DB6B3276DC68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3733800" y="7137400"/>
-          <a:ext cx="1003300" cy="993559"/>
+          <a:off x="10439400" y="6299200"/>
+          <a:ext cx="965200" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,14 +1917,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D3B8C-BF99-CB48-B9FB-62E55C3C42AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/システム構成図第２版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/システム構成図第２版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D949DBA-5D07-BE43-AE86-C0F26B8BEF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8547D6B-5323-AF45-9513-1AFA597025C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{6F755374-3484-0A4A-8DA6-FA8E50FADCCE}"/>
   </bookViews>
@@ -1237,32 +1237,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="下矢印 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F6CCD0-6F9F-DC4D-9B9F-529E63D9AA51}"/>
+        <xdr:cNvPr id="40" name="下矢印 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B757C31-4176-8B4D-BD5C-3F24088BB393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1498600" y="5842000"/>
-          <a:ext cx="711200" cy="3860800"/>
+        <a:xfrm rot="10800000">
+          <a:off x="3886200" y="5664200"/>
+          <a:ext cx="635000" cy="3835400"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1293,116 +1293,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="下矢印 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B757C31-4176-8B4D-BD5C-3F24088BB393}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3886200" y="5664200"/>
-          <a:ext cx="635000" cy="3835400"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28359</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C28DED8-1918-144D-8DF9-DFAC18396180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="7162800"/>
-          <a:ext cx="1003300" cy="993559"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">

--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/システム構成図第２版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/システム構成図第２版.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakaiharuka/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/05_システム構成図/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8547D6B-5323-AF45-9513-1AFA597025C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD67558D-4D92-A044-AB3B-A4B2618555C5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{6F755374-3484-0A4A-8DA6-FA8E50FADCCE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{6F755374-3484-0A4A-8DA6-FA8E50FADCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -329,7 +330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="850900" y="1435100"/>
-          <a:ext cx="1004852" cy="1206500"/>
+          <a:ext cx="1017552" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,6 +1498,2125 @@
         <a:xfrm>
           <a:off x="10439400" y="6299200"/>
           <a:ext cx="965200" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>724973</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506847</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="下矢印 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC56F7F5-342A-BC42-B051-DAA85C2CC4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7356689">
+          <a:off x="6071487" y="7024453"/>
+          <a:ext cx="700274" cy="3652350"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>227392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="上下矢印 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5E0584-AB82-D745-A7AD-ADD237608D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6154056" y="3747107"/>
+          <a:ext cx="547915" cy="3184676"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>417015</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>626532</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="上下矢印 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFABFAD-0084-564D-A6EE-3B9C8466A3CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14936474" y="2076228"/>
+          <a:ext cx="551195" cy="6843846"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>703428</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="円形吹き出し 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD77DAE-5D7D-8D47-BBEA-62269132ECD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13024324" y="4294241"/>
+          <a:ext cx="4983139" cy="2379815"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61649"/>
+            <a:gd name="adj2" fmla="val 29166"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313266</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>237066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="円形吹き出し 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CBDDAB-29AE-464D-9F14-25D402E71979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15485533" y="8873066"/>
+          <a:ext cx="2379133" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61649"/>
+            <a:gd name="adj2" fmla="val 29166"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="円形吹き出し 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252E448D-CF48-7743-AA7C-E2E776E0D74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14706600" y="1016000"/>
+          <a:ext cx="2387600" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61649"/>
+            <a:gd name="adj2" fmla="val 29166"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297543</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67EA1B9-13CD-AE42-9601-6DD5600BBFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8082643" y="4888592"/>
+          <a:ext cx="3644900" cy="1506680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>155424</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66524</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>194125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC7B0D1-8AC4-AB40-B696-8DD1796076E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123043" y="6675966"/>
+          <a:ext cx="3781576" cy="1017207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401818</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9822C6-7EB5-114F-8108-03E5E33A5FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8013700" y="1346200"/>
+          <a:ext cx="2040118" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>443631</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61361070-A3DD-D246-B246-D5E7C514326A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11455401" y="1384300"/>
+          <a:ext cx="2323230" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502557</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>554909</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D691E3CC-1C3A-CC46-8E47-E94E7013DEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470176" y="4715328"/>
+          <a:ext cx="1019971" cy="1146024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>570593</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FB0654-9202-0641-B28D-B134B303F8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="570593" y="3084286"/>
+          <a:ext cx="4902502" cy="5745238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>815074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80894544-E017-964B-A8A5-4E5E5E9F0D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7358227" y="4171287"/>
+          <a:ext cx="4829981" cy="2663426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F00E6-8380-E346-862F-43CEBD1977F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404100" y="850900"/>
+          <a:ext cx="6692900" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>681510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>351310</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDE4368-37E4-A148-AD35-1A739F0C36D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15845689" y="4716376"/>
+          <a:ext cx="1565322" cy="1537951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>738415</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>94947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205015</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E242E6-41AD-104B-B5BF-3F20DC99CDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706034" y="2755899"/>
+          <a:ext cx="2369457" cy="789819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>ユーザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>795440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570265</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>222052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="上下矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60BDA33-5041-6A47-9243-890527F2A404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3300733">
+          <a:off x="6185416" y="1241013"/>
+          <a:ext cx="606301" cy="3645301"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="上下矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286284A0-2921-784D-A85D-65402BD3E2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10306050" y="1733550"/>
+          <a:ext cx="622300" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>910168</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>651774</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>212878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BF3462-91B6-9B4B-9E83-A7CC18C69E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2845406" y="4541763"/>
+          <a:ext cx="1676844" cy="1476829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303067</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>474195</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="グラフィックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1279867-DD11-2F43-A665-74E18CE098CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13571724" y="4966269"/>
+          <a:ext cx="2066650" cy="1104506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>56847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685802</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8AB248-55B2-CB4F-BEA1-AD1D63C40625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11755363" y="9007323"/>
+          <a:ext cx="2477106" cy="2368248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471715</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>203201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>535214</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BFD898-2AA1-C449-8418-C43F41D359B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9180286" y="9153677"/>
+          <a:ext cx="1998738" cy="1897138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163891</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201991</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>233437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C453D880-8406-3E48-B1CF-597E99070AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969605" y="4852069"/>
+          <a:ext cx="1005719" cy="945178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170844</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208944</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C418592-FAD5-7941-BF91-7029720AEB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5976558" y="2555724"/>
+          <a:ext cx="1005719" cy="945179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694871</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1480FDA-8A7F-344B-BAB1-E10D124D8906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7468204" y="7384142"/>
+          <a:ext cx="7825015" cy="4464354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112486</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>237066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150586</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>214625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791052A3-B184-6F44-8F2E-A0C317B296DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="8461828"/>
+          <a:ext cx="1005719" cy="945178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>745066</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>220311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBD8B60-6083-BB4C-8EEF-4E7F5FB78F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15917333" y="9304867"/>
+          <a:ext cx="1583267" cy="1583444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>636215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>306015</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="下矢印 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE902F1-91DB-3646-B1C0-BC83A2097508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11255230" y="9800167"/>
+          <a:ext cx="687010" cy="637419"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438484</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2540A14B-09EB-F14F-90EF-F237FDD0EABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15227300" y="1524000"/>
+          <a:ext cx="1403684" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558E4069-90F7-024A-A27C-AD2957628E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7797800" y="419100"/>
+          <a:ext cx="2324100" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>投票機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC579FB-CDE5-2940-9A35-EDED6C55EC6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="3822700"/>
+          <a:ext cx="3263900" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>温度変更機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>806809</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>118528</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D804112-97FE-EC41-80F4-54F2FA37D56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18814272" y="4814628"/>
+          <a:ext cx="3102763" cy="1486672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231438</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>665237</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>193162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F478C84-072A-1345-AC21-90A81375F4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18616200" y="4286589"/>
+          <a:ext cx="4304275" cy="2438002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161832</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>580933</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>207472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB38525-FE10-784A-8074-72C929760372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19117056" y="3827540"/>
+          <a:ext cx="2314623" cy="815454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>エアコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56242</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>216806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113394</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A087813F-C13D-3642-9EC2-719D3F7F39CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7676242" y="7201806"/>
+          <a:ext cx="4819652" cy="894445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>気温・湿度通知機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67732</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>626534</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159FE7B1-78AF-3847-B9E4-149192258C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8602132" y="9042400"/>
+          <a:ext cx="5300135" cy="2980268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>928309</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>897467</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FA74E5-EE6D-0A49-828D-6B097A0D0B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="18314" r="22215" b="15041"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7566176" y="8399237"/>
+          <a:ext cx="1865691" cy="1422096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,7 +3927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D3B8C-BF99-CB48-B9FB-62E55C3C42AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
@@ -1818,4 +3938,21 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E535D-3281-D047-A3A3-D890C099F45A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="42" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>